--- a/com.BrinyTime/src/test/resources/TestData/Testdata_adminPage.xlsx
+++ b/com.BrinyTime/src/test/resources/TestData/Testdata_adminPage.xlsx
@@ -5,17 +5,18 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hp\eclipse-workspace\com.BrinyTime\src\test\resources\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hp\git\repository3\com.BrinyTime\src\test\resources\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27B1BEDD-F40C-4476-9991-6F1C9F9CF1C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E369011-F228-449A-8E6E-02D4AC5800EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="960" yWindow="1296" windowWidth="22080" windowHeight="11064" activeTab="2" xr2:uid="{B3475C28-287D-43E4-A156-238E08691C2A}"/>
+    <workbookView xWindow="960" yWindow="1296" windowWidth="22080" windowHeight="11064" activeTab="3" xr2:uid="{B3475C28-287D-43E4-A156-238E08691C2A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="DataProvider" sheetId="2" r:id="rId2"/>
     <sheet name="MapData" sheetId="3" r:id="rId3"/>
+    <sheet name="MapDataProvider" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="48">
   <si>
     <t>categoryname</t>
   </si>
@@ -147,6 +148,30 @@
   </si>
   <si>
     <t>Test@123</t>
+  </si>
+  <si>
+    <t>USERNAME</t>
+  </si>
+  <si>
+    <t>PASSWORD</t>
+  </si>
+  <si>
+    <t>user1</t>
+  </si>
+  <si>
+    <t>user2</t>
+  </si>
+  <si>
+    <t>user3</t>
+  </si>
+  <si>
+    <t>password1</t>
+  </si>
+  <si>
+    <t>password2</t>
+  </si>
+  <si>
+    <t>password3</t>
   </si>
 </sst>
 </file>
@@ -717,7 +742,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{120860E9-1D25-4C31-980F-B5508ADE9172}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
@@ -746,4 +771,55 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B8391E2-AA53-458D-BA47-5F369943AD54}">
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>